--- a/Docs/Rogue Screen.xlsx
+++ b/Docs/Rogue Screen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12075"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="24240" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -260,6 +260,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -621,7 +622,7 @@
   <dimension ref="A2:AW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,163 +4037,163 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4AF8</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AF9</v>
       </c>
-      <c r="E23" s="9" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFA</v>
       </c>
-      <c r="F23" s="9" t="str">
+      <c r="F23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFB</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFC</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFD</v>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="I23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFE</v>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4AFF</v>
       </c>
-      <c r="K23" s="9" t="str">
+      <c r="K23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B00</v>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B01</v>
       </c>
-      <c r="M23" s="9" t="str">
+      <c r="M23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B02</v>
       </c>
-      <c r="N23" s="9" t="str">
+      <c r="N23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B03</v>
       </c>
-      <c r="O23" s="9" t="str">
+      <c r="O23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B04</v>
       </c>
-      <c r="P23" s="9" t="str">
+      <c r="P23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B05</v>
       </c>
-      <c r="Q23" s="9" t="str">
+      <c r="Q23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B06</v>
       </c>
-      <c r="R23" s="9" t="str">
+      <c r="R23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4B07</v>
       </c>
-      <c r="S23" s="9" t="str">
+      <c r="S23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B08</v>
       </c>
-      <c r="T23" s="9" t="str">
+      <c r="T23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B09</v>
       </c>
-      <c r="U23" s="9" t="str">
+      <c r="U23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0A</v>
       </c>
-      <c r="V23" s="9" t="str">
+      <c r="V23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0B</v>
       </c>
-      <c r="W23" s="9" t="str">
+      <c r="W23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0C</v>
       </c>
-      <c r="X23" s="9" t="str">
+      <c r="X23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0D</v>
       </c>
-      <c r="Y23" s="9" t="str">
+      <c r="Y23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0E</v>
       </c>
-      <c r="Z23" s="9" t="str">
+      <c r="Z23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B0F</v>
       </c>
-      <c r="AA23" s="9" t="str">
+      <c r="AA23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B10</v>
       </c>
-      <c r="AB23" s="9" t="str">
+      <c r="AB23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B11</v>
       </c>
-      <c r="AC23" s="9" t="str">
+      <c r="AC23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B12</v>
       </c>
-      <c r="AD23" s="9" t="str">
+      <c r="AD23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B13</v>
       </c>
-      <c r="AE23" s="9" t="str">
+      <c r="AE23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B14</v>
       </c>
-      <c r="AF23" s="9" t="str">
+      <c r="AF23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B15</v>
       </c>
-      <c r="AG23" s="9" t="str">
+      <c r="AG23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B16</v>
       </c>
-      <c r="AH23" s="9" t="str">
+      <c r="AH23" s="3" t="str">
         <f t="shared" si="7"/>
         <v>4B17</v>
       </c>
-      <c r="AI23" s="9" t="str">
+      <c r="AI23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B18</v>
       </c>
-      <c r="AJ23" s="9" t="str">
+      <c r="AJ23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B19</v>
       </c>
-      <c r="AK23" s="9" t="str">
+      <c r="AK23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B1A</v>
       </c>
-      <c r="AL23" s="9" t="str">
+      <c r="AL23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B1B</v>
       </c>
-      <c r="AM23" s="9" t="str">
+      <c r="AM23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B1C</v>
       </c>
-      <c r="AN23" s="9" t="str">
+      <c r="AN23" s="3" t="str">
         <f t="shared" si="5"/>
         <v>4B1D</v>
       </c>
-      <c r="AO23" s="9" t="str">
+      <c r="AO23" s="3" t="str">
         <f t="shared" si="6"/>
         <v>4B1E</v>
       </c>
-      <c r="AP23" s="15" t="str">
+      <c r="AP23" s="4" t="str">
         <f t="shared" si="6"/>
         <v>4B1F</v>
       </c>
